--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_VerticalPanels_ChildTop_Test/ParentCellsShiftChildRowShift_WithFictitiousRow.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_VerticalPanels_ChildTop_Test/ParentCellsShiftChildRowShift_WithFictitiousRow.xlsx
@@ -8,9 +8,7 @@
   <x:sheets>
     <x:sheet name="Test" sheetId="2" r:id="rId2"/>
   </x:sheets>
-  <x:definedNames>
-    <x:definedName name="ChildRange" localSheetId="0">Test!$B$11:$E$11</x:definedName>
-  </x:definedNames>
+  <x:definedNames/>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -104,23 +102,6 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
         <x:color rgb="FFFF0000"/>
       </x:left>
       <x:right style="none">
@@ -140,7 +121,7 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
@@ -157,7 +138,7 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
@@ -180,6 +161,74 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
       <x:bottom style="thin">
         <x:color rgb="FF000000"/>
       </x:bottom>
@@ -215,57 +264,6 @@
         <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
@@ -292,9 +290,6 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -302,6 +297,9 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -336,10 +334,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -349,6 +343,10 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -673,124 +671,124 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="9" t="s"/>
-      <x:c r="C2" s="10" t="s"/>
-      <x:c r="D2" s="10" t="s"/>
-      <x:c r="E2" s="11" t="s"/>
+      <x:c r="B2" s="5" t="s"/>
+      <x:c r="C2" s="7" t="s"/>
+      <x:c r="D2" s="7" t="s"/>
+      <x:c r="E2" s="6" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="1" t="s"/>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="A3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B3" s="4" t="s"/>
+      <x:c r="C3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E3" s="4" t="n">
+      <x:c r="E3" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="1" t="s"/>
-      <x:c r="C4" s="2" t="s">
+      <x:c r="B4" s="4" t="s"/>
+      <x:c r="C4" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D4" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E4" s="4" t="n">
+      <x:c r="E4" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s"/>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="B5" s="4" t="s"/>
+      <x:c r="C5" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E5" s="4" t="n">
+      <x:c r="E5" s="2" t="n">
         <x:v>55.76</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="5" t="s">
+      <x:c r="B6" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C6" s="6">
+      <x:c r="C6" s="9">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D6" s="7" t="s"/>
-      <x:c r="E6" s="8" t="s"/>
+      <x:c r="D6" s="10" t="s"/>
+      <x:c r="E6" s="11" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B7" s="9" t="s"/>
-      <x:c r="C7" s="10" t="s"/>
-      <x:c r="D7" s="10" t="s"/>
-      <x:c r="E7" s="11" t="s"/>
+      <x:c r="B7" s="5" t="s"/>
+      <x:c r="C7" s="7" t="s"/>
+      <x:c r="D7" s="7" t="s"/>
+      <x:c r="E7" s="6" t="s"/>
       <x:c r="F7" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
-      <x:c r="B8" s="5" t="s">
+      <x:c r="B8" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C8" s="6">
+      <x:c r="C8" s="9">
         <x:v>43041</x:v>
       </x:c>
-      <x:c r="D8" s="7" t="s"/>
-      <x:c r="E8" s="8" t="s"/>
+      <x:c r="D8" s="10" t="s"/>
+      <x:c r="E8" s="11" t="s"/>
     </x:row>
     <x:row r="9" spans="1:6">
-      <x:c r="B9" s="9" t="s"/>
-      <x:c r="C9" s="10" t="s"/>
-      <x:c r="D9" s="10" t="s"/>
-      <x:c r="E9" s="11" t="s"/>
+      <x:c r="B9" s="5" t="s"/>
+      <x:c r="C9" s="7" t="s"/>
+      <x:c r="D9" s="7" t="s"/>
+      <x:c r="E9" s="6" t="s"/>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="B10" s="1" t="s"/>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="B10" s="4" t="s"/>
+      <x:c r="C10" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E10" s="4" t="n">
+      <x:c r="E10" s="2" t="n">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="B11" s="1" t="s"/>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="B11" s="4" t="s"/>
+      <x:c r="C11" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E11" s="4" t="n">
+      <x:c r="E11" s="2" t="n">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="B12" s="5" t="s">
+      <x:c r="B12" s="8" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C12" s="6">
+      <x:c r="C12" s="9">
         <x:v>43042</x:v>
       </x:c>
-      <x:c r="D12" s="7" t="s"/>
-      <x:c r="E12" s="8" t="s"/>
+      <x:c r="D12" s="10" t="s"/>
+      <x:c r="E12" s="11" t="s"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="D13" s="0" t="s">

--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_VerticalPanels_ChildTop_Test/ParentCellsShiftChildRowShift_WithFictitiousRow.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelRender_WithGrouping_VerticalPanels_ChildTop_Test/ParentCellsShiftChildRowShift_WithFictitiousRow.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -102,6 +102,74 @@
     </x:border>
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
         <x:color rgb="FFFF0000"/>
       </x:left>
       <x:right style="none">
@@ -121,7 +189,7 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="thin">
+      <x:right style="none">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
@@ -138,7 +206,7 @@
       <x:left style="none">
         <x:color rgb="FF000000"/>
       </x:left>
-      <x:right style="none">
+      <x:right style="thin">
         <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
@@ -146,74 +214,6 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="FFFF0000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="thin">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="thin">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
       </x:bottom>
       <x:diagonal style="none">
         <x:color rgb="FF000000"/>
@@ -671,23 +671,23 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="5" t="s"/>
-      <x:c r="C2" s="7" t="s"/>
-      <x:c r="D2" s="7" t="s"/>
-      <x:c r="E2" s="6" t="s"/>
+      <x:c r="B2" s="1"/>
+      <x:c r="C2" s="2"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="A3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s"/>
-      <x:c r="C3" s="1" t="s">
+      <x:c r="B3" s="4"/>
+      <x:c r="C3" s="5" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D3" s="3" t="s">
+      <x:c r="D3" s="6" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="n">
+      <x:c r="E3" s="7">
         <x:v>55.76</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
@@ -695,26 +695,26 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="4" t="s"/>
-      <x:c r="C4" s="1" t="s">
+      <x:c r="B4" s="4"/>
+      <x:c r="C4" s="5" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D4" s="3" t="s">
+      <x:c r="D4" s="6" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="n">
+      <x:c r="E4" s="7">
         <x:v>55.76</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="4" t="s"/>
-      <x:c r="C5" s="1" t="s">
+      <x:c r="B5" s="4"/>
+      <x:c r="C5" s="5" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s">
+      <x:c r="D5" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="n">
+      <x:c r="E5" s="7">
         <x:v>55.76</x:v>
       </x:c>
     </x:row>
@@ -725,17 +725,17 @@
       <x:c r="C6" s="9">
         <x:v>43040</x:v>
       </x:c>
-      <x:c r="D6" s="10" t="s"/>
-      <x:c r="E6" s="11" t="s"/>
+      <x:c r="D6" s="10"/>
+      <x:c r="E6" s="11"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B7" s="5" t="s"/>
-      <x:c r="C7" s="7" t="s"/>
-      <x:c r="D7" s="7" t="s"/>
-      <x:c r="E7" s="6" t="s"/>
+      <x:c r="B7" s="1"/>
+      <x:c r="C7" s="2"/>
+      <x:c r="D7" s="2"/>
+      <x:c r="E7" s="3"/>
       <x:c r="F7" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -747,36 +747,36 @@
       <x:c r="C8" s="9">
         <x:v>43041</x:v>
       </x:c>
-      <x:c r="D8" s="10" t="s"/>
-      <x:c r="E8" s="11" t="s"/>
+      <x:c r="D8" s="10"/>
+      <x:c r="E8" s="11"/>
     </x:row>
     <x:row r="9" spans="1:6">
-      <x:c r="B9" s="5" t="s"/>
-      <x:c r="C9" s="7" t="s"/>
-      <x:c r="D9" s="7" t="s"/>
-      <x:c r="E9" s="6" t="s"/>
+      <x:c r="B9" s="1"/>
+      <x:c r="C9" s="2"/>
+      <x:c r="D9" s="2"/>
+      <x:c r="E9" s="3"/>
     </x:row>
     <x:row r="10" spans="1:6">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="C10" s="1" t="s">
+      <x:c r="B10" s="4"/>
+      <x:c r="C10" s="5" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D10" s="3" t="s">
+      <x:c r="D10" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E10" s="2" t="n">
+      <x:c r="E10" s="7">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
-      <x:c r="B11" s="4" t="s"/>
-      <x:c r="C11" s="1" t="s">
+      <x:c r="B11" s="4"/>
+      <x:c r="C11" s="5" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D11" s="3" t="s">
+      <x:c r="D11" s="6" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="E11" s="2" t="n">
+      <x:c r="E11" s="7">
         <x:v>5500.8</x:v>
       </x:c>
     </x:row>
@@ -787,8 +787,8 @@
       <x:c r="C12" s="9">
         <x:v>43042</x:v>
       </x:c>
-      <x:c r="D12" s="10" t="s"/>
-      <x:c r="E12" s="11" t="s"/>
+      <x:c r="D12" s="10"/>
+      <x:c r="E12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="D13" s="0" t="s">
